--- a/DMSNewVSale_2025-10-28_12-09.xlsx
+++ b/DMSNewVSale_2025-10-28_12-09.xlsx
@@ -321,6 +321,15 @@
   </si>
   <si>
     <t>45.0000</t>
+  </si>
+  <si>
+    <t>كحول طبي</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>15.0000</t>
   </si>
   <si>
     <t>محلول ملح</t>
@@ -1854,51 +1863,84 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
         <v>107</v>
       </c>
-    </row>
-    <row r="34" ht="26.25" customHeight="1">
-      <c r="N34" s="13">
-        <v>1388.4949999999999</v>
-      </c>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="13"/>
-    </row>
-    <row r="35" ht="16.5" customHeight="1">
-      <c t="s" r="A35" s="14">
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
         <v>108</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c t="s" r="G35" s="15">
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>43</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>26</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
         <v>109</v>
       </c>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="16"/>
-      <c t="s" r="K35" s="17">
+      <c t="s" r="Q34" s="12">
         <v>110</v>
       </c>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
+    </row>
+    <row r="35" ht="25.5" customHeight="1">
+      <c r="N35" s="13">
+        <v>1403.4949999999999</v>
+      </c>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
+    </row>
+    <row r="36" ht="16.5" customHeight="1">
+      <c t="s" r="A36" s="14">
+        <v>111</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c t="s" r="G36" s="15">
+        <v>112</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+      <c t="s" r="K36" s="17">
+        <v>113</v>
+      </c>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="147">
+  <mergeCells count="152">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2042,10 +2084,15 @@
     <mergeCell ref="H33:K33"/>
     <mergeCell ref="L33:M33"/>
     <mergeCell ref="N33:O33"/>
-    <mergeCell ref="N34:Q34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="N35:Q35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="K36:Q36"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
